--- a/Documentation/EE4951_Timeline.xlsx
+++ b/Documentation/EE4951_Timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38480" yWindow="0" windowWidth="35900" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35860" windowHeight="20620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t xml:space="preserve">- Logging Software              </t>
   </si>
   <si>
-    <t xml:space="preserve">- Subsystem Prototyping    </t>
-  </si>
-  <si>
     <t xml:space="preserve">- PCB Assembly                    </t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Today 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Sub-system Prototyping   </t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
                   <c:v>Hardware Bring-up                 </c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>- Subsystem Prototyping    </c:v>
+                  <c:v>- Sub-system Prototyping   </c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>- PCB Assembly                    </c:v>
@@ -925,8 +925,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="-2090063208"/>
-        <c:axId val="-2089923496"/>
+        <c:axId val="-2119637016"/>
+        <c:axId val="-2119935208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -959,10 +959,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42259.0</c:v>
+                  <c:v>42260.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42259.0</c:v>
+                  <c:v>42260.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,11 +994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2063333960"/>
-        <c:axId val="-2063207720"/>
+        <c:axId val="-2120144024"/>
+        <c:axId val="-2120080760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2090063208"/>
+        <c:axId val="-2119637016"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089923496"/>
+        <c:crossAx val="-2119935208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089923496"/>
+        <c:axId val="-2119935208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42362.0"/>
@@ -1038,13 +1038,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090063208"/>
+        <c:crossAx val="-2119637016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2063207720"/>
+        <c:axId val="-2120080760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1056,14 +1056,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063333960"/>
+        <c:crossAx val="-2120144024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="0.02"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-2063333960"/>
+        <c:axId val="-2120144024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42362.0"/>
@@ -1075,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063207720"/>
+        <c:crossAx val="-2120080760"/>
         <c:crosses val="max"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A21" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1516,7 +1516,7 @@
         <v>42262</v>
       </c>
       <c r="C3" s="1">
-        <f>IF(D3,B3+7*D3,"")</f>
+        <f t="shared" ref="C3:C12" si="1">IF(D3,B3+7*D3,"")</f>
         <v>42297</v>
       </c>
       <c r="D3" s="3">
@@ -1535,7 +1535,7 @@
         <v>42262</v>
       </c>
       <c r="C4" s="1">
-        <f>IF(D4,B4+7*D4,"")</f>
+        <f t="shared" si="1"/>
         <v>42269</v>
       </c>
       <c r="D4" s="3">
@@ -1556,7 +1556,7 @@
         <v>42269</v>
       </c>
       <c r="C5" s="1">
-        <f>IF(D5,B5+7*D5,"")</f>
+        <f t="shared" si="1"/>
         <v>42290</v>
       </c>
       <c r="D5" s="3">
@@ -1577,26 +1577,26 @@
         <v>42283</v>
       </c>
       <c r="C6" s="1">
-        <f>IF(D6,B6+7*D6,"")</f>
+        <f t="shared" si="1"/>
         <v>42297</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" ref="E6:E17" si="1">IF(D6,7*D6,"")</f>
+        <f t="shared" ref="E6:E17" si="2">IF(D6,7*D6,"")</f>
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="str">
-        <f>IF(D7,B7+7*D7,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1609,14 +1609,14 @@
         <v>42285</v>
       </c>
       <c r="C8" s="1">
-        <f>IF(D8,B8+7*D8,"")</f>
+        <f t="shared" si="1"/>
         <v>42313</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
@@ -1629,14 +1629,14 @@
         <v>42285</v>
       </c>
       <c r="C9" s="1">
-        <f>IF(D9,B9+7*D9,"")</f>
+        <f t="shared" si="1"/>
         <v>42295.5</v>
       </c>
       <c r="D9" s="3">
         <v>1.5</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
     </row>
@@ -1649,14 +1649,14 @@
         <v>42295.5</v>
       </c>
       <c r="C10" s="1">
-        <f>IF(D10,B10+7*D10,"")</f>
+        <f t="shared" si="1"/>
         <v>42306</v>
       </c>
       <c r="D10" s="3">
         <v>1.5</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
     </row>
@@ -1669,26 +1669,26 @@
         <v>42306</v>
       </c>
       <c r="C11" s="1">
-        <f>IF(D11,B11+7*D11,"")</f>
+        <f t="shared" si="1"/>
         <v>42313</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="str">
-        <f>IF(D12,B12+7*D12,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="7">
-        <f>IF(D18,7*D18,"")</f>
+        <f t="shared" ref="E18:E27" si="3">IF(D18,7*D18,"")</f>
         <v>42</v>
       </c>
     </row>
@@ -1816,19 +1816,19 @@
         <v>42304</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(D19,B19+7*D19,"")</f>
+        <f t="shared" ref="C19:C26" si="4">IF(D19,B19+7*D19,"")</f>
         <v>42332</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
       <c r="E19" s="7">
-        <f>IF(D19,7*D19,"")</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
@@ -1836,19 +1836,19 @@
         <v>42318</v>
       </c>
       <c r="C20" s="1">
-        <f>IF(D20,B20+7*D20,"")</f>
+        <f t="shared" si="4"/>
         <v>42339</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
       </c>
       <c r="E20" s="7">
-        <f>IF(D20,7*D20,"")</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
@@ -1856,14 +1856,14 @@
         <v>42325</v>
       </c>
       <c r="C21" s="1">
-        <f>IF(D21,B21+7*D21,"")</f>
+        <f t="shared" si="4"/>
         <v>42346</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
       </c>
       <c r="E21" s="7">
-        <f>IF(D21,7*D21,"")</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="str">
-        <f>IF(D22,B22+7*D22,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="str">
-        <f>IF(D22,7*D22,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1884,12 +1884,12 @@
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="str">
-        <f>IF(D23,B23+7*D23,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="str">
-        <f>IF(D23,7*D23,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1902,27 +1902,27 @@
         <v>42283</v>
       </c>
       <c r="C24" s="1">
-        <f>IF(D24,B24+7*D24,"")</f>
+        <f t="shared" si="4"/>
         <v>42339</v>
       </c>
       <c r="D24" s="3">
         <v>8</v>
       </c>
       <c r="E24" s="7">
-        <f>IF(D24,7*D24,"")</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <f>B24</f>
         <v>42283</v>
       </c>
       <c r="C25" s="1">
-        <f>IF(D25,B25+7*D25,"")</f>
+        <f t="shared" si="4"/>
         <v>42311</v>
       </c>
       <c r="D25" s="3">
@@ -1930,47 +1930,47 @@
         <v>4</v>
       </c>
       <c r="E25" s="7">
-        <f>IF(D25,7*D25,"")</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <f>C8</f>
         <v>42313</v>
       </c>
       <c r="C26" s="1">
-        <f>IF(D26,B26+7*D26,"")</f>
+        <f t="shared" si="4"/>
         <v>42316.5</v>
       </c>
       <c r="D26" s="3">
         <v>0.5</v>
       </c>
       <c r="E26" s="7">
-        <f>IF(D26,7*D26,"")</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
         <f>C26</f>
         <v>42316.5</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ref="C27:C54" si="2">IF(D27,B27+7*D27,"")</f>
+        <f t="shared" ref="C27:C54" si="5">IF(D27,B27+7*D27,"")</f>
         <v>42339.25</v>
       </c>
       <c r="D27" s="3">
         <v>3.25</v>
       </c>
       <c r="E27" s="7">
-        <f>IF(D27,7*D27,"")</f>
+        <f t="shared" si="3"/>
         <v>22.75</v>
       </c>
     </row>
@@ -1978,12 +1978,12 @@
       <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7" t="str">
-        <f t="shared" ref="E28:E54" si="3">IF(D28,7*D28,"")</f>
+        <f t="shared" ref="E28:E54" si="6">IF(D28,7*D28,"")</f>
         <v/>
       </c>
     </row>
@@ -1991,20 +1991,20 @@
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I29" s="8">
         <f ca="1">TODAY()</f>
-        <v>42259</v>
+        <v>42260</v>
       </c>
       <c r="J29">
         <v>-100</v>
@@ -2014,20 +2014,20 @@
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="8">
         <f ca="1">I29</f>
-        <v>42259</v>
+        <v>42260</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -2037,12 +2037,12 @@
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2050,12 +2050,12 @@
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2063,12 +2063,12 @@
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2076,12 +2076,12 @@
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2089,72 +2089,72 @@
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2162,12 +2162,12 @@
       <c r="A41" s="6"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2188,12 +2188,12 @@
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2214,12 +2214,12 @@
       <c r="A45" s="6"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       <c r="A46" s="6"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2240,12 +2240,12 @@
       <c r="A47" s="6"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2253,12 +2253,12 @@
       <c r="A48" s="6"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       <c r="A49" s="6"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2279,12 +2279,12 @@
       <c r="A50" s="6"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2292,12 +2292,12 @@
       <c r="A51" s="6"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2305,12 +2305,12 @@
       <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2318,12 +2318,12 @@
       <c r="A53" s="6"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       <c r="A54" s="6"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>

--- a/Documentation/EE4951_Timeline.xlsx
+++ b/Documentation/EE4951_Timeline.xlsx
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A21" sqref="A19:A21"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Documentation/EE4951_Timeline.xlsx
+++ b/Documentation/EE4951_Timeline.xlsx
@@ -180,7 +180,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,8 +234,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -249,8 +259,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -277,6 +290,11 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -303,6 +321,11 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,22 +484,22 @@
                   <c:v>42262.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42269.0</c:v>
+                  <c:v>42265.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42283.0</c:v>
+                  <c:v>42278.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42285.0</c:v>
+                  <c:v>42278.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42285.0</c:v>
+                  <c:v>42278.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42295.5</c:v>
+                  <c:v>42288.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42306.0</c:v>
+                  <c:v>42299.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42269.0</c:v>
@@ -485,34 +508,34 @@
                   <c:v>42269.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42283.0</c:v>
+                  <c:v>42276.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>42290.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42290.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42290.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>42304.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>42304.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42304.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42318.0</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>42325.0</c:v>
+                  <c:v>42311.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42283.0</c:v>
+                  <c:v>42279.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42283.0</c:v>
+                  <c:v>42279.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42313.0</c:v>
+                  <c:v>42306.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42316.5</c:v>
+                  <c:v>42309.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,16 +779,16 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.0</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -786,13 +809,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>35.0</c:v>
@@ -801,16 +824,16 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.0</c:v>
@@ -819,7 +842,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>28.0</c:v>
@@ -828,7 +851,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.75</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.0</c:v>
@@ -925,8 +948,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="-2119637016"/>
-        <c:axId val="-2119935208"/>
+        <c:axId val="2134552616"/>
+        <c:axId val="2134555624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -959,10 +982,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42260.0</c:v>
+                  <c:v>42267.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42260.0</c:v>
+                  <c:v>42267.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,11 +1017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120144024"/>
-        <c:axId val="-2120080760"/>
+        <c:axId val="2134562008"/>
+        <c:axId val="2134559144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119637016"/>
+        <c:axId val="2134552616"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1017,7 +1040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119935208"/>
+        <c:crossAx val="2134555624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119935208"/>
+        <c:axId val="2134555624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42362.0"/>
@@ -1038,13 +1061,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119637016"/>
+        <c:crossAx val="2134552616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120080760"/>
+        <c:axId val="2134559144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1056,14 +1079,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120144024"/>
+        <c:crossAx val="2134562008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="0.02"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-2120144024"/>
+        <c:axId val="2134562008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42362.0"/>
@@ -1075,7 +1098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120080760"/>
+        <c:crossAx val="2134559144"/>
         <c:crosses val="max"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1463,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1500,7 +1523,7 @@
         <f t="shared" ref="C2" si="0">IF(D2,B2+7*D2,"")</f>
         <v>42264</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2" s="7">
@@ -1516,15 +1539,16 @@
         <v>42262</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C12" si="1">IF(D3,B3+7*D3,"")</f>
-        <v>42297</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5</v>
+        <f>C6</f>
+        <v>42288.5</v>
+      </c>
+      <c r="D3" s="9">
+        <f>(C3-B3)/7</f>
+        <v>3.7857142857142856</v>
       </c>
       <c r="E3" s="7">
         <f>IF(D3,7*D3,"")</f>
-        <v>35</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1535,10 +1559,10 @@
         <v>42262</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C3:C12" si="1">IF(D4,B4+7*D4,"")</f>
         <v>42269</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="7">
@@ -1552,19 +1576,18 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <f>C4</f>
-        <v>42269</v>
+        <v>42265</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>42290</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
+        <v>42282.5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.5</v>
       </c>
       <c r="E5" s="7">
         <f>IF(D5,7*D5,"")</f>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -1573,19 +1596,18 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <f>C5-7</f>
-        <v>42283</v>
+        <v>42278</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>42297</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
+        <v>42288.5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.5</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" ref="E6:E17" si="2">IF(D6,7*D6,"")</f>
-        <v>14</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1594,7 +1616,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1605,14 +1627,14 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <f>B6+2</f>
-        <v>42285</v>
+        <f>B6</f>
+        <v>42278</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>42313</v>
-      </c>
-      <c r="D8" s="3">
+        <v>42306</v>
+      </c>
+      <c r="D8" s="9">
         <v>4</v>
       </c>
       <c r="E8" s="7">
@@ -1626,13 +1648,13 @@
       </c>
       <c r="B9" s="1">
         <f>B8</f>
-        <v>42285</v>
+        <v>42278</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>42295.5</v>
-      </c>
-      <c r="D9" s="3">
+        <v>42288.5</v>
+      </c>
+      <c r="D9" s="9">
         <v>1.5</v>
       </c>
       <c r="E9" s="7">
@@ -1646,13 +1668,13 @@
       </c>
       <c r="B10" s="1">
         <f>C9</f>
-        <v>42295.5</v>
+        <v>42288.5</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>42306</v>
-      </c>
-      <c r="D10" s="3">
+        <v>42299</v>
+      </c>
+      <c r="D10" s="9">
         <v>1.5</v>
       </c>
       <c r="E10" s="7">
@@ -1666,13 +1688,13 @@
       </c>
       <c r="B11" s="1">
         <f>C8-7</f>
-        <v>42306</v>
+        <v>42299</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>42313</v>
-      </c>
-      <c r="D11" s="3">
+        <v>42306</v>
+      </c>
+      <c r="D11" s="9">
         <v>1</v>
       </c>
       <c r="E11" s="7">
@@ -1686,7 +1708,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1702,15 +1724,14 @@
       </c>
       <c r="C13" s="1">
         <f>C24</f>
-        <v>42339</v>
-      </c>
-      <c r="D13" s="3">
-        <f>(C13-B13)/7</f>
-        <v>10</v>
+        <v>42328</v>
+      </c>
+      <c r="D13" s="9">
+        <v>8</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1725,7 +1746,7 @@
         <f>IF(D14,B14+7*D14,"")</f>
         <v>42276</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="7">
@@ -1738,19 +1759,19 @@
         <v>17</v>
       </c>
       <c r="B15" s="1">
-        <f>C14+7</f>
-        <v>42283</v>
+        <f>C14</f>
+        <v>42276</v>
       </c>
       <c r="C15" s="1">
         <f>IF(D15,B15+7*D15,"")</f>
-        <v>42318</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5</v>
+        <v>42304</v>
+      </c>
+      <c r="D15" s="9">
+        <v>4</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1759,14 +1780,13 @@
       </c>
       <c r="B16" s="1">
         <f>C15-14</f>
-        <v>42304</v>
+        <v>42290</v>
       </c>
       <c r="C16" s="1">
         <f>C13</f>
-        <v>42339</v>
-      </c>
-      <c r="D16" s="3">
-        <f>(C16-B16)/7</f>
+        <v>42328</v>
+      </c>
+      <c r="D16" s="9">
         <v>5</v>
       </c>
       <c r="E16" s="7">
@@ -1780,7 +1800,7 @@
         <f>IF(D17,B17+7*D17,"")</f>
         <v/>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1792,19 +1812,18 @@
       </c>
       <c r="B18" s="1">
         <f>B16</f>
-        <v>42304</v>
+        <v>42290</v>
       </c>
       <c r="C18" s="1">
         <f>C24+7</f>
-        <v>42346</v>
-      </c>
-      <c r="D18" s="3">
-        <f>(C18-B18)/7</f>
-        <v>6</v>
+        <v>42335</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" ref="E18:E27" si="3">IF(D18,7*D18,"")</f>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1813,18 +1832,18 @@
       </c>
       <c r="B19" s="1">
         <f>B18</f>
-        <v>42304</v>
+        <v>42290</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:C26" si="4">IF(D19,B19+7*D19,"")</f>
-        <v>42332</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
+        <v>42311</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1833,18 +1852,18 @@
       </c>
       <c r="B20" s="1">
         <f>B16+14</f>
-        <v>42318</v>
+        <v>42304</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
-        <v>42339</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
+        <v>42318</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1853,18 +1872,18 @@
       </c>
       <c r="B21" s="1">
         <f>B20+7</f>
-        <v>42325</v>
+        <v>42311</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
-        <v>42346</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3</v>
+        <v>42325</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1874,7 +1893,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1887,7 +1906,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1899,18 +1918,18 @@
       </c>
       <c r="B24" s="1">
         <f>B5+14</f>
-        <v>42283</v>
+        <v>42279</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
-        <v>42339</v>
-      </c>
-      <c r="D24" s="3">
-        <v>8</v>
+        <v>42328</v>
+      </c>
+      <c r="D24" s="9">
+        <v>7</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1919,13 +1938,13 @@
       </c>
       <c r="B25" s="1">
         <f>B24</f>
-        <v>42283</v>
+        <v>42279</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
-        <v>42311</v>
-      </c>
-      <c r="D25" s="3">
+        <v>42307</v>
+      </c>
+      <c r="D25" s="9">
         <f>4</f>
         <v>4</v>
       </c>
@@ -1940,13 +1959,13 @@
       </c>
       <c r="B26" s="1">
         <f>C8</f>
-        <v>42313</v>
+        <v>42306</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
-        <v>42316.5</v>
-      </c>
-      <c r="D26" s="3">
+        <v>42309.5</v>
+      </c>
+      <c r="D26" s="9">
         <v>0.5</v>
       </c>
       <c r="E26" s="7">
@@ -1960,28 +1979,29 @@
       </c>
       <c r="B27" s="1">
         <f>C26</f>
-        <v>42316.5</v>
+        <v>42309.5</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ref="C27:C54" si="5">IF(D27,B27+7*D27,"")</f>
-        <v>42339.25</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3.25</v>
+        <f>C24</f>
+        <v>42328</v>
+      </c>
+      <c r="D27" s="9">
+        <f>(C27-B27)/7</f>
+        <v>2.6428571428571428</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="3"/>
-        <v>22.75</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D28" s="3"/>
+        <f t="shared" ref="C27:C54" si="5">IF(D28,B28+7*D28,"")</f>
+        <v/>
+      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="7" t="str">
         <f t="shared" ref="E28:E54" si="6">IF(D28,7*D28,"")</f>
         <v/>
@@ -1994,7 +2014,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2004,7 +2024,7 @@
       </c>
       <c r="I29" s="8">
         <f ca="1">TODAY()</f>
-        <v>42260</v>
+        <v>42267</v>
       </c>
       <c r="J29">
         <v>-100</v>
@@ -2017,7 +2037,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2027,7 +2047,7 @@
       </c>
       <c r="I30" s="8">
         <f ca="1">I29</f>
-        <v>42260</v>
+        <v>42267</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -2040,7 +2060,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2053,7 +2073,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2066,7 +2086,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2079,7 +2099,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>

--- a/Documentation/EE4951_Timeline.xlsx
+++ b/Documentation/EE4951_Timeline.xlsx
@@ -948,8 +948,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="2134552616"/>
-        <c:axId val="2134555624"/>
+        <c:axId val="2134665112"/>
+        <c:axId val="2134668120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -982,10 +982,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42267.0</c:v>
+                  <c:v>42270.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42267.0</c:v>
+                  <c:v>42270.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,11 +1017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134562008"/>
-        <c:axId val="2134559144"/>
+        <c:axId val="2134674504"/>
+        <c:axId val="2134671640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134552616"/>
+        <c:axId val="2134665112"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1040,7 +1040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134555624"/>
+        <c:crossAx val="2134668120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134555624"/>
+        <c:axId val="2134668120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42362.0"/>
@@ -1061,13 +1061,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134552616"/>
+        <c:crossAx val="2134665112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2134559144"/>
+        <c:axId val="2134671640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1079,14 +1079,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134562008"/>
+        <c:crossAx val="2134674504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="0.02"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="2134562008"/>
+        <c:axId val="2134674504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42362.0"/>
@@ -1098,7 +1098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134559144"/>
+        <c:crossAx val="2134671640"/>
         <c:crosses val="max"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1559,7 +1559,7 @@
         <v>42262</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C3:C12" si="1">IF(D4,B4+7*D4,"")</f>
+        <f t="shared" ref="C4:C12" si="1">IF(D4,B4+7*D4,"")</f>
         <v>42269</v>
       </c>
       <c r="D4" s="9">
@@ -1815,8 +1815,8 @@
         <v>42290</v>
       </c>
       <c r="C18" s="1">
-        <f>C24+7</f>
-        <v>42335</v>
+        <f>C24</f>
+        <v>42328</v>
       </c>
       <c r="D18" s="9">
         <v>5</v>
@@ -1998,7 +1998,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="str">
-        <f t="shared" ref="C27:C54" si="5">IF(D28,B28+7*D28,"")</f>
+        <f t="shared" ref="C28:C54" si="5">IF(D28,B28+7*D28,"")</f>
         <v/>
       </c>
       <c r="D28" s="9"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="I29" s="8">
         <f ca="1">TODAY()</f>
-        <v>42267</v>
+        <v>42270</v>
       </c>
       <c r="J29">
         <v>-100</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="I30" s="8">
         <f ca="1">I29</f>
-        <v>42267</v>
+        <v>42270</v>
       </c>
       <c r="J30">
         <v>100</v>
